--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxApLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxApLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6C7AB-7E8B-484B-9728-4C4F01EA3499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -388,16 +389,37 @@
   <si>
     <t>15</t>
   </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2022-03-11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>智偉修改
+長度原20新30</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -405,7 +427,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -413,7 +435,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -480,7 +502,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,12 +702,15 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -770,6 +801,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -805,6 +853,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,25 +1045,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="4" max="4" width="26.21875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1078,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
@@ -1026,7 +1091,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
@@ -1039,7 +1104,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1115,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1128,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1139,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1150,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1125,7 +1190,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1144,7 +1209,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1">
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1163,7 +1228,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:9" s="19" customFormat="1">
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -1182,7 +1247,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:9" s="19" customFormat="1">
+    <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>7</v>
       </c>
@@ -1201,7 +1266,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>8</v>
       </c>
@@ -1220,7 +1285,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>9</v>
       </c>
@@ -1241,7 +1306,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1">
+    <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>10</v>
       </c>
@@ -1260,7 +1325,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1">
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>11</v>
       </c>
@@ -1274,12 +1339,14 @@
         <v>33</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1">
+      <c r="G17" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>12</v>
       </c>
@@ -1298,7 +1365,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" s="19" customFormat="1">
+    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>13</v>
       </c>
@@ -1317,7 +1384,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" s="19" customFormat="1">
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>14</v>
       </c>
@@ -1336,7 +1403,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" s="19" customFormat="1">
+    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>15</v>
       </c>
@@ -1355,7 +1422,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" s="19" customFormat="1">
+    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>16</v>
       </c>
@@ -1374,7 +1441,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>17</v>
       </c>
@@ -1388,7 +1455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>18</v>
       </c>
@@ -1405,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>19</v>
       </c>
@@ -1419,7 +1486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>20</v>
       </c>
@@ -1453,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1461,15 +1528,15 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="100.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1491,7 +1558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -1502,7 +1569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxApLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxApLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE698AD-B493-40EA-BDDA-EB823C094588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33C738-41A5-4B7B-B2B5-48CF91EEF7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
@@ -1246,7 +1246,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="30">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="34"/>
@@ -1642,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
